--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T15:24:05+00:00</t>
+    <t>2025-11-19T16:22:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T16:22:07+00:00</t>
+    <t>2025-11-20T10:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T10:32:05+00:00</t>
+    <t>2025-11-20T16:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-20T16:06:37+00:00</t>
+    <t>2025-11-21T09:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T09:00:00+00:00</t>
+    <t>2025-11-26T10:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-26T10:17:34+00:00</t>
+    <t>2025-11-27T09:05:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T09:05:35+00:00</t>
+    <t>2025-11-27T16:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T16:23:25+00:00</t>
+    <t>2025-11-27T17:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:29:29+00:00</t>
+    <t>2025-11-28T10:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T10:30:25+00:00</t>
+    <t>2025-12-01T08:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T08:11:14+00:00</t>
+    <t>2025-12-01T09:05:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T09:05:19+00:00</t>
+    <t>2025-12-02T17:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T17:18:03+00:00</t>
+    <t>2025-12-03T10:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T10:22:03+00:00</t>
+    <t>2025-12-05T09:54:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:54:12+00:00</t>
+    <t>2025-12-09T10:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Exclude #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T10:26:43+00:00</t>
+    <t>2025-12-10T10:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,10 +97,28 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>ValueSet URL</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-discriminator-vs</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>titreObjectif</t>
+  </si>
+  <si>
+    <t>avisUsagerObjectif</t>
+  </si>
+  <si>
+    <t>strategieMiseEnOeuvreObjectif</t>
+  </si>
+  <si>
+    <t>origineAttente</t>
+  </si>
+  <si>
+    <t>commentaireAttente</t>
   </si>
   <si>
     <t/>
@@ -108,7 +127,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-care-plan-supportingInfo-cs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-discriminator-cs</t>
   </si>
 </sst>
 </file>
@@ -373,7 +392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,20 +412,75 @@
         <v>28</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T10:50:40+00:00</t>
+    <t>2025-12-10T17:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T17:05:10+00:00</t>
+    <t>2025-12-11T09:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -323,66 +326,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -404,12 +409,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -431,56 +436,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T09:07:04+00:00</t>
+    <t>2025-12-11T13:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T13:02:12+00:00</t>
+    <t>2025-12-12T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T08:56:07+00:00</t>
+    <t>2025-12-12T09:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T09:34:59+00:00</t>
+    <t>2025-12-12T10:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
+++ b/389-mapping---projet-personnalisé/ig/ValueSet-tddui-care-plan-supportingInfo-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T10:25:32+00:00</t>
+    <t>2025-12-12T10:38:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
